--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H2">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.48556067080587</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N2">
-        <v>7.48556067080587</v>
+        <v>23.519992</v>
       </c>
       <c r="O2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P2">
-        <v>0.3910429977859032</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q2">
-        <v>20.48417605153213</v>
+        <v>21.67574500062845</v>
       </c>
       <c r="R2">
-        <v>20.48417605153213</v>
+        <v>195.081705005656</v>
       </c>
       <c r="S2">
-        <v>0.1131211825530249</v>
+        <v>0.1030508398661474</v>
       </c>
       <c r="T2">
-        <v>0.1131211825530249</v>
+        <v>0.1030508398661474</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H3">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1790713620364</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N3">
-        <v>11.1790713620364</v>
+        <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P3">
-        <v>0.583990668183661</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q3">
-        <v>30.59143809570406</v>
+        <v>32.00090762232389</v>
       </c>
       <c r="R3">
-        <v>30.59143809570406</v>
+        <v>288.008168600915</v>
       </c>
       <c r="S3">
-        <v>0.1689372149838004</v>
+        <v>0.1521387341871693</v>
       </c>
       <c r="T3">
-        <v>0.1689372149838004</v>
+        <v>0.1521387341871693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H4">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J4">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4779193315584</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N4">
-        <v>0.4779193315584</v>
+        <v>0.134471</v>
       </c>
       <c r="O4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P4">
-        <v>0.02496633403043571</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q4">
-        <v>1.307822373847501</v>
+        <v>0.1239268748892222</v>
       </c>
       <c r="R4">
-        <v>1.307822373847501</v>
+        <v>1.115341874003</v>
       </c>
       <c r="S4">
-        <v>0.007222277973336791</v>
+        <v>0.0005891732228327588</v>
       </c>
       <c r="T4">
-        <v>0.007222277973336791</v>
+        <v>0.0005891732228327588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.89473477325209</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H5">
-        <v>5.89473477325209</v>
+        <v>8.294293</v>
       </c>
       <c r="I5">
-        <v>0.6231455918953174</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J5">
-        <v>0.6231455918953174</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.48556067080587</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N5">
-        <v>7.48556067080587</v>
+        <v>1.457465</v>
       </c>
       <c r="O5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P5">
-        <v>0.3910429977859032</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q5">
-        <v>44.1253947834876</v>
+        <v>1.343182416360555</v>
       </c>
       <c r="R5">
-        <v>44.1253947834876</v>
+        <v>12.088641747245</v>
       </c>
       <c r="S5">
-        <v>0.2436767203118159</v>
+        <v>0.006385758648451686</v>
       </c>
       <c r="T5">
-        <v>0.2436767203118159</v>
+        <v>0.006385758648451686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H6">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I6">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J6">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.1790713620364</v>
+        <v>7.839997333333334</v>
       </c>
       <c r="N6">
-        <v>11.1790713620364</v>
+        <v>23.519992</v>
       </c>
       <c r="O6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="P6">
-        <v>0.583990668183661</v>
+        <v>0.3930770090432645</v>
       </c>
       <c r="Q6">
-        <v>65.89766069046256</v>
+        <v>46.45554878545423</v>
       </c>
       <c r="R6">
-        <v>65.89766069046256</v>
+        <v>418.0999390690881</v>
       </c>
       <c r="S6">
-        <v>0.3639112105866493</v>
+        <v>0.2208589978635126</v>
       </c>
       <c r="T6">
-        <v>0.3639112105866493</v>
+        <v>0.2208589978635125</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H7">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J7">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4779193315584</v>
+        <v>11.57455166666667</v>
       </c>
       <c r="N7">
-        <v>0.4779193315584</v>
+        <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796234</v>
       </c>
       <c r="P7">
-        <v>0.02496633403043571</v>
+        <v>0.5803178185796235</v>
       </c>
       <c r="Q7">
-        <v>2.817207702546695</v>
+        <v>68.58448118782445</v>
       </c>
       <c r="R7">
-        <v>2.817207702546695</v>
+        <v>617.26033069042</v>
       </c>
       <c r="S7">
-        <v>0.01555766099685207</v>
+        <v>0.326064381546488</v>
       </c>
       <c r="T7">
-        <v>0.01555766099685207</v>
+        <v>0.326064381546488</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.82841623765369</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H8">
-        <v>0.82841623765369</v>
+        <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.08757373259452061</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J8">
-        <v>0.08757373259452061</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.48556067080587</v>
+        <v>0.04482366666666667</v>
       </c>
       <c r="N8">
-        <v>7.48556067080587</v>
+        <v>0.134471</v>
       </c>
       <c r="O8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="P8">
-        <v>0.3910429977859032</v>
+        <v>0.002247341686300608</v>
       </c>
       <c r="Q8">
-        <v>6.201160007637431</v>
+        <v>0.2656006048271112</v>
       </c>
       <c r="R8">
-        <v>6.201160007637431</v>
+        <v>2.390405443444</v>
       </c>
       <c r="S8">
-        <v>0.0342450949210624</v>
+        <v>0.001262718554568573</v>
       </c>
       <c r="T8">
-        <v>0.0342450949210624</v>
+        <v>0.001262718554568573</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.82841623765369</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H9">
-        <v>0.82841623765369</v>
+        <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.08757373259452061</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J9">
-        <v>0.08757373259452061</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.1790713620364</v>
+        <v>0.4858216666666667</v>
       </c>
       <c r="N9">
-        <v>11.1790713620364</v>
+        <v>1.457465</v>
       </c>
       <c r="O9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="P9">
-        <v>0.583990668183661</v>
+        <v>0.02435783069081152</v>
       </c>
       <c r="Q9">
-        <v>9.260924238200305</v>
+        <v>2.878714261917778</v>
       </c>
       <c r="R9">
-        <v>9.260924238200305</v>
+        <v>25.90842835726</v>
       </c>
       <c r="S9">
-        <v>0.05114224261321134</v>
+        <v>0.01368598506841092</v>
       </c>
       <c r="T9">
-        <v>0.05114224261321134</v>
+        <v>0.01368598506841092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.131775</v>
+      </c>
+      <c r="I10">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J10">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.519992</v>
+      </c>
+      <c r="O10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P10">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q10">
+        <v>2.957704327311111</v>
+      </c>
+      <c r="R10">
+        <v>26.6193389458</v>
+      </c>
+      <c r="S10">
+        <v>0.01406151968462037</v>
+      </c>
+      <c r="T10">
+        <v>0.01406151968462037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.131775</v>
+      </c>
+      <c r="I11">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J11">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N11">
+        <v>34.723655</v>
+      </c>
+      <c r="O11">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P11">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q11">
+        <v>4.366596070847222</v>
+      </c>
+      <c r="R11">
+        <v>39.299364637625</v>
+      </c>
+      <c r="S11">
+        <v>0.02075967365569115</v>
+      </c>
+      <c r="T11">
+        <v>0.02075967365569115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.131775</v>
+      </c>
+      <c r="I12">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J12">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.134471</v>
+      </c>
+      <c r="O12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P12">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q12">
+        <v>0.01691010178055555</v>
+      </c>
+      <c r="R12">
+        <v>0.152190916025</v>
+      </c>
+      <c r="S12">
+        <v>8.039401601457117E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.039401601457116E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="H10">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="I10">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="J10">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="N10">
-        <v>0.4779193315584</v>
-      </c>
-      <c r="O10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="P10">
-        <v>0.02496633403043571</v>
-      </c>
-      <c r="Q10">
-        <v>0.3959161345515761</v>
-      </c>
-      <c r="R10">
-        <v>0.3959161345515761</v>
-      </c>
-      <c r="S10">
-        <v>0.002186395060246857</v>
-      </c>
-      <c r="T10">
-        <v>0.002186395060246857</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.131775</v>
+      </c>
+      <c r="I13">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J13">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.457465</v>
+      </c>
+      <c r="O13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P13">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q13">
+        <v>0.1832802722638889</v>
+      </c>
+      <c r="R13">
+        <v>1.649522450375</v>
+      </c>
+      <c r="S13">
+        <v>0.0008713511801851475</v>
+      </c>
+      <c r="T13">
+        <v>0.0008713511801851473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.587637</v>
+      </c>
+      <c r="H14">
+        <v>1.762911</v>
+      </c>
+      <c r="I14">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J14">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N14">
+        <v>23.519992</v>
+      </c>
+      <c r="O14">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P14">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q14">
+        <v>4.607072512968</v>
+      </c>
+      <c r="R14">
+        <v>41.463652616712</v>
+      </c>
+      <c r="S14">
+        <v>0.02190294690087145</v>
+      </c>
+      <c r="T14">
+        <v>0.02190294690087144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.587637</v>
+      </c>
+      <c r="H15">
+        <v>1.762911</v>
+      </c>
+      <c r="I15">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J15">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N15">
+        <v>34.723655</v>
+      </c>
+      <c r="O15">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P15">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q15">
+        <v>6.801634817745</v>
+      </c>
+      <c r="R15">
+        <v>61.21471335970499</v>
+      </c>
+      <c r="S15">
+        <v>0.0323363363248244</v>
+      </c>
+      <c r="T15">
+        <v>0.0323363363248244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.587637</v>
+      </c>
+      <c r="H16">
+        <v>1.762911</v>
+      </c>
+      <c r="I16">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J16">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.134471</v>
+      </c>
+      <c r="O16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P16">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q16">
+        <v>0.026340045009</v>
+      </c>
+      <c r="R16">
+        <v>0.237060405081</v>
+      </c>
+      <c r="S16">
+        <v>0.0001252258577599467</v>
+      </c>
+      <c r="T16">
+        <v>0.0001252258577599467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.587637</v>
+      </c>
+      <c r="H17">
+        <v>1.762911</v>
+      </c>
+      <c r="I17">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J17">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.457465</v>
+      </c>
+      <c r="O17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P17">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q17">
+        <v>0.285486786735</v>
+      </c>
+      <c r="R17">
+        <v>2.569381080615</v>
+      </c>
+      <c r="S17">
+        <v>0.001357261452507237</v>
+      </c>
+      <c r="T17">
+        <v>0.001357261452507237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H18">
+        <v>2.672399</v>
+      </c>
+      <c r="I18">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J18">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.839997333333334</v>
+      </c>
+      <c r="N18">
+        <v>23.519992</v>
+      </c>
+      <c r="O18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="P18">
+        <v>0.3930770090432645</v>
+      </c>
+      <c r="Q18">
+        <v>6.98386701120089</v>
+      </c>
+      <c r="R18">
+        <v>62.85480310080801</v>
+      </c>
+      <c r="S18">
+        <v>0.03320270472811274</v>
+      </c>
+      <c r="T18">
+        <v>0.03320270472811274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H19">
+        <v>2.672399</v>
+      </c>
+      <c r="I19">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J19">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N19">
+        <v>34.723655</v>
+      </c>
+      <c r="O19">
+        <v>0.5803178185796234</v>
+      </c>
+      <c r="P19">
+        <v>0.5803178185796235</v>
+      </c>
+      <c r="Q19">
+        <v>10.31060676648278</v>
+      </c>
+      <c r="R19">
+        <v>92.79546089834501</v>
+      </c>
+      <c r="S19">
+        <v>0.04901869286545062</v>
+      </c>
+      <c r="T19">
+        <v>0.04901869286545062</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H20">
+        <v>2.672399</v>
+      </c>
+      <c r="I20">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J20">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.04482366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.134471</v>
+      </c>
+      <c r="O20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="P20">
+        <v>0.002247341686300608</v>
+      </c>
+      <c r="Q20">
+        <v>0.03992890732544446</v>
+      </c>
+      <c r="R20">
+        <v>0.3593601659290001</v>
+      </c>
+      <c r="S20">
+        <v>0.0001898300351247589</v>
+      </c>
+      <c r="T20">
+        <v>0.0001898300351247589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.672399</v>
+      </c>
+      <c r="I21">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J21">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4858216666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.457465</v>
+      </c>
+      <c r="O21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="P21">
+        <v>0.02435783069081152</v>
+      </c>
+      <c r="Q21">
+        <v>0.4327697787261112</v>
+      </c>
+      <c r="R21">
+        <v>3.894928008535</v>
+      </c>
+      <c r="S21">
+        <v>0.002057474341256529</v>
+      </c>
+      <c r="T21">
+        <v>0.002057474341256529</v>
       </c>
     </row>
   </sheetData>
